--- a/data/financial_statements/sofp/HBAN.xlsx
+++ b/data/financial_statements/sofp/HBAN.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -113,9 +233,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -168,12 +285,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -470,2135 +584,2189 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN31"/>
+  <dimension ref="A1:AO31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>6937000000</v>
+      </c>
+      <c r="C2">
         <v>4624000000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>4138000000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>4696000000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>5960000000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>10265000000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>14019000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>8692000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>6774000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>6438000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>6420000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>1940000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>1371000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>1876000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>1923000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>1649000000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>2830000000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>1425000000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>1508000000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>1200000000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>1653000000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>1332316000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>1687391000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>1469653000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>1576000000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>1749123000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>947365000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>928840000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>935991000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>1128772000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>1510524000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>1021532000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>1327315000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>1019220000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>1338628000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>1084934000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>1093748000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>1244925000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>1151548000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>986525000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>126441000000</v>
+      </c>
+      <c r="C3">
         <v>122906000000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>121423000000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>118764000000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>118192000000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>120060000000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>125097000000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>88756000000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>87843000000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>87101000000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>86022000000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>79468000000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>76869000000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>77049000000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>76960000000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>76657000000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>77762000000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>77024000000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>76121000000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>74349000000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>71567000000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>71951130000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>71843270000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>70431630000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>70475000000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>73128470000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>55384140000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>54104420000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>52783980000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>52853120000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>52194480000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>51659910000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>50601380000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>49187560000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>48780900000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>46749170000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>45502460000</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>45144790000</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>44320300000</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>44058300000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>1156000000</v>
+      </c>
+      <c r="C4">
         <v>1171000000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>1175000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>1173000000</v>
       </c>
-      <c r="E4">
-        <v>1164000000</v>
-      </c>
       <c r="F4">
+        <v>1480000000</v>
+      </c>
+      <c r="G4">
         <v>1126000000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>1128000000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>747000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>757000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>752000000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>751000000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>743000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>763000000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>775000000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>774000000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>784000000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>790000000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>827000000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>840000000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>847000000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>864000000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>853290000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>855347000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>852582000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>816000000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>828440000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>596642000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>611603000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>620540000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>620515000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>615436000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>607263000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>616407000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>613214000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>622289000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>628966000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>634657000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>639632000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>626745000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>620833000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
+        <v>41329000000</v>
+      </c>
+      <c r="C5">
         <v>41297000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>42495000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>43398000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>41555000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>38758000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>35022000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>27601000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>25764000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>23785000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>23151000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>25303000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>23660000000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>23171000000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>22839000000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>23215000000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>22910000000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>22757000000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>23349000000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>23998000000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>24560000000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>24141460000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>23667880000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>23707120000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>23370000000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>21771760000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>15311600000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>15265530000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>14935030000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>14252560000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>13559030000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>13259060000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>12764580000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>12218300000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>12113030000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>11489510000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>11145420000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>8682803000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>8987887000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>9197713000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
+        <v>6283000000</v>
+      </c>
+      <c r="C6">
         <v>6286000000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>6274000000</v>
       </c>
-      <c r="D6">
-        <v>6014000000</v>
-      </c>
       <c r="E6">
-        <v>5960000000</v>
+        <v>5598000000</v>
       </c>
       <c r="F6">
+        <v>5591000000</v>
+      </c>
+      <c r="G6">
         <v>5930000000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>5935000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>2470000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>2418000000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>2409000000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>2401000000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>2407000000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>2465000000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>2445000000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>2471000000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>2503000000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>2524000000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>2550000000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>2560000000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>2572000000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>2577000000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>2582439000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>2591366000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>2608630000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>2621000000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>2614060000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>884002000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>896783000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>921084000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>735662000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>741074000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>751034000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>597212000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>607865000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>586908000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>596205000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>537461000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>547780000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>558142000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>568504000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
-        <v>7742000000</v>
+        <v>9270000000</v>
       </c>
       <c r="C7">
-        <v>7415000000</v>
+        <v>4180000000</v>
       </c>
       <c r="D7">
-        <v>7507000000</v>
+        <v>5786000000</v>
       </c>
       <c r="E7">
-        <v>7193000000</v>
+        <v>6486000000</v>
       </c>
       <c r="F7">
+        <v>4790000000</v>
+      </c>
+      <c r="G7">
         <v>8004000000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>7990000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>6194000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>6256000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>6069000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>6100000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>5976000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>5245000000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>5295000000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>5203000000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>5044000000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>4795000000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>2494000000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>2488000000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>2480000000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>4617000000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>2459807000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>2448913000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>2445545000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>2432000000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>2422692000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>1777628000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>1766637000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>1757668000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>1748328000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>1735627000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>1725388000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>1718436000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>1703692000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>1693991000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>1681898000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>1647170000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>1633247000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>1620604000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>1609610000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B8">
+        <v>56465000000</v>
+      </c>
+      <c r="C8">
         <v>56496000000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>57359000000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>58092000000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>55872000000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>53818000000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>50075000000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>37012000000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>35195000000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>33015000000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>32403000000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>34429000000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>32133000000</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>31686000000</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>31287000000</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>31546000000</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>31019000000</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>28628000000</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>29237000000</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>29897000000</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>32618000000</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>30037000000</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>29563510000</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>29613880000</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>29239000000</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>27636950000</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>18569880000</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>18540550000</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>18234320000</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>17357060000</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>16651170000</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>16342750000</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>15696630000</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>15143070000</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>15016220000</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>14396580000</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>13964710000</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>11503460000</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>11793380000</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>11996660000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
+        <v>182906000000</v>
+      </c>
+      <c r="C9">
         <v>179402000000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>178782000000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>176856000000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>174064000000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>173878000000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>175172000000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>125768000000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>123038000000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>120116000000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>118425000000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>113897000000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>109002000000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>108735000000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>108247000000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>108203000000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>108781000000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>105652000000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>105358000000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>104246000000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>104185000000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>101988100000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>101406800000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>100045500000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>99714000000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>100765400000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>73954020000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>72644970000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>71018300000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>70210180000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>68845650000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>68002660000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>66298010000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>64330630000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>63797110000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>61145750000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>59467180000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>56648250000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>56113690000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>56054960000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>2027000000</v>
+      </c>
+      <c r="C10">
         <v>426000000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>3048000000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>652000000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>334000000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>435000000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>391000000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>219000000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>183000000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>222000000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>146000000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>2826000000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>2606000000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>2173000000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>4161000000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>2862000000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>2017000000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>1348000000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>2442000000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>2854000000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>5056000000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>1829549000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>4552877000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>1263430000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>3693000000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>2148118000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>1956745000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>471375000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>615279000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>1453812000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>1511444000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>2007236000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>2397101000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>1530938000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>1252409000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>1398393000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>2352143000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>660932000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>630405000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>732705000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>147914000000</v>
+      </c>
+      <c r="C11">
         <v>146313000000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>145435000000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>146965000000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>143263000000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>141898000000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>142805000000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>102184000000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>98948000000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>95154000000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>93691000000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>86830000000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>82347000000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>82395000000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>80882000000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>82155000000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>84774000000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>81689000000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>79587000000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>79471000000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>77041000000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>78445110000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>75933380000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>77422510000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>75608000000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>77405090000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>55043460000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>55628840000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>55294980000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>54244710000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>53473180000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>52832700000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>51732150000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>50129840000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>48748770000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>49348750000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>47506720000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>46564050000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>46331430000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>46867140000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="R12">
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S12">
         <v>2296000000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>2131000000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>1995000000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>2068000000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>1813908000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>1729876000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>1643279000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>1796000000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>1826862000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>1516683000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>1451668000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>1472073000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>1569573000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>1510183000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>1541940000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>1504626000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>1161056000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>1085796000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>1065721000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>1059888000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>1112076000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>1115419000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>1059516000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
+        <v>2027000000</v>
+      </c>
+      <c r="C13">
         <v>426000000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>3048000000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>652000000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>1813000000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>435000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>391000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>219000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>2092000000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>222000000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>146000000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>2826000000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>5061000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
+        <v>149941000000</v>
+      </c>
+      <c r="C14">
         <v>146739000000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>148483000000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>147617000000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>143597000000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>142333000000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>143196000000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>102403000000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>99131000000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>95376000000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>93837000000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>89656000000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>84953000000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>84568000000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>85043000000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>85017000000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>86791000000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>85333000000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>84160000000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>84320000000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>84165000000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>82088560000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>82216130000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>80329220000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>81097000000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>81380070000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>58516890000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>57551890000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>57382330000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>57268100000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>56494810000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>56381870000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>55633880000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>52821830000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>51086970000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>51812870000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>50918750000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>48337050000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>48077260000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>48659360000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B15">
+        <v>9686000000</v>
+      </c>
+      <c r="C15">
         <v>10168000000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>7866000000</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>6508000000</v>
       </c>
-      <c r="E15">
-        <v>7108000000</v>
-      </c>
       <c r="F15">
+        <v>6070000000</v>
+      </c>
+      <c r="G15">
         <v>7779000000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>7342000000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>7210000000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>8352000000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>9174000000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>9753000000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>9796000000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>9849000000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>9874000000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>8973000000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>9400000000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>8625000000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>9385000000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>9726000000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>8618000000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>9206000000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>9200707000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>8536471000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>9279140000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>8309000000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>8998571000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>7929820000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>7935412000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>7041364000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>6359445000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>5854584000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>5158836000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>4335962000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>5224588000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>6469352000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>3156652000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>2458272000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>2349618000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>2252914000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>1528466000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B16">
+        <v>5510000000</v>
+      </c>
+      <c r="C16">
         <v>5324000000</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>4454000000</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>4250000000</v>
       </c>
-      <c r="E16">
-        <v>4041000000</v>
-      </c>
       <c r="F16">
+        <v>3600000000</v>
+      </c>
+      <c r="G16">
         <v>4267000000</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>4103000000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>2555000000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>2562000000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>2649000000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>2521000000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>2676000000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>2405000000</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>2384000000</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>2563000000</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>2354000000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>2263000000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B17">
+        <v>15196000000</v>
+      </c>
+      <c r="C17">
         <v>15492000000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>12320000000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>10758000000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>11149000000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>12046000000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>11445000000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>9765000000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>10914000000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>11823000000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>12274000000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>12472000000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>12254000000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>12258000000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>11536000000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>11754000000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>10888000000</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>9385000000</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>9726000000</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>8618000000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>9206000000</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>9200707000</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>8536471000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>9279140000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>8309000000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>8998571000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>7929820000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>7935412000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>7041364000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>6359445000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>5854584000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>5158836000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>4335962000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>5224588000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>6469352000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>3156652000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>2458272000</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>2349618000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>2252914000</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>1528466000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
+        <v>165137000000</v>
+      </c>
+      <c r="C18">
         <v>162231000000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>160803000000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>158375000000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>154746000000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>154379000000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>154641000000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>112168000000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>110045000000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>107199000000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>106111000000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>102128000000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>97207000000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>96826000000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>96579000000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>96771000000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>97679000000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>94718000000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>93886000000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>92938000000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>93371000000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>91289270000</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>90752590000</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>89608360000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>89406000000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>90378650000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>66446710000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>65487300000</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>64423700000</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>63627540000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>62349390000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>61540710000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>59969840000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>58046420000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>57556320000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>54969520000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>53377020000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>50686670000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>50330170000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>50187830000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
+        <v>15309000000</v>
+      </c>
+      <c r="C19">
         <v>15282000000</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>15261000000</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>15255000000</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>15222000000</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>15350000000</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>15830000000</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>8806000000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>8781000000</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>8766000000</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>8743000000</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>8728000000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>8806000000</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>8980000000</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>9030000000</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>9167000000</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>9181000000</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>9358000000</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>10038000000</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>10025000000</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>9707000000</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>9820600000</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>9920052000</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>9898889000</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>9881000000</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>9863149000</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>7074249000</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>7050463000</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>7038502000</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>7053902000</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>7109493000</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>7185766000</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>7221745000</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>7243879000</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>7279244000</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>7372024000</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>7398515000</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>7387033000</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>7390041000</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>7451287000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
         <v>2167000000</v>
@@ -2613,25 +2781,25 @@
         <v>2167000000</v>
       </c>
       <c r="F20">
+        <v>2167000000</v>
+      </c>
+      <c r="G20">
         <v>2267000000</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>2851000000</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>2676000000</v>
-      </c>
-      <c r="I20">
-        <v>2191000000</v>
       </c>
       <c r="J20">
         <v>2191000000</v>
       </c>
       <c r="K20">
+        <v>2191000000</v>
+      </c>
+      <c r="L20">
         <v>1697000000</v>
-      </c>
-      <c r="L20">
-        <v>1203000000</v>
       </c>
       <c r="M20">
         <v>1203000000</v>
@@ -2658,34 +2826,34 @@
         <v>1203000000</v>
       </c>
       <c r="U20">
+        <v>1203000000</v>
+      </c>
+      <c r="V20">
         <v>1071000000</v>
-      </c>
-      <c r="V20">
-        <v>1071286000</v>
       </c>
       <c r="W20">
         <v>1071286000</v>
       </c>
       <c r="X20">
+        <v>1071286000</v>
+      </c>
+      <c r="Y20">
         <v>1071227000</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>1071000000</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>1071227000</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>971278000</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>772639000</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>386291000</v>
-      </c>
-      <c r="AD20">
-        <v>386292000</v>
       </c>
       <c r="AE20">
         <v>386292000</v>
@@ -2717,10 +2885,13 @@
       <c r="AN20">
         <v>386292000</v>
       </c>
+      <c r="AO20">
+        <v>386292000</v>
+      </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
         <v>14000000</v>
@@ -2735,13 +2906,13 @@
         <v>14000000</v>
       </c>
       <c r="F21">
-        <v>15000000</v>
+        <v>14000000</v>
       </c>
       <c r="G21">
         <v>15000000</v>
       </c>
       <c r="H21">
-        <v>10000000</v>
+        <v>15000000</v>
       </c>
       <c r="I21">
         <v>10000000</v>
@@ -2765,7 +2936,7 @@
         <v>10000000</v>
       </c>
       <c r="P21">
-        <v>11000000</v>
+        <v>10000000</v>
       </c>
       <c r="Q21">
         <v>11000000</v>
@@ -2783,209 +2954,215 @@
         <v>11000000</v>
       </c>
       <c r="V21">
+        <v>11000000</v>
+      </c>
+      <c r="W21">
         <v>10844000</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>10932000</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>10900000</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>11000000</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>10877000</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>8015000</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>7988000</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>7970000</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>7987000</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>8050000</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>8102000</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>8131000</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>8161000</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>8182000</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>8290000</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>8322000</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>8315000</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>8310000</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>8401000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
+        <v>3419000000</v>
+      </c>
+      <c r="C22">
         <v>3029000000</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>2691000000</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>2408000000</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>2202000000</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>2051000000</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>1939000000</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>2223000000</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>1878000000</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>1752000000</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>1633000000</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>1657000000</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>2088000000</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>1946000000</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>1750000000</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>1551000000</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>1361000000</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>1196000000</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>990000000</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>780000000</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>588000000</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>201215000</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>33557000</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>-126244000</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>-227000000</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>-359380000</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>-390838000</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>-487717000</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>-594067000</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>-708341000</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>-804884000</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>-943525000</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>-1052324000</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>-1159168000</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>-1264129000</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>-1379832000</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>-1479324000</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>-1578401000</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>-1706673000</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>-1807746000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
         <v>80000000</v>
       </c>
       <c r="C23">
+        <v>80000000</v>
+      </c>
+      <c r="D23">
         <v>85000000</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>78000000</v>
-      </c>
-      <c r="E23">
-        <v>79000000</v>
       </c>
       <c r="F23">
         <v>79000000</v>
       </c>
       <c r="G23">
+        <v>79000000</v>
+      </c>
+      <c r="H23">
         <v>105000000</v>
-      </c>
-      <c r="H23">
-        <v>59000000</v>
       </c>
       <c r="I23">
         <v>59000000</v>
@@ -2997,587 +3174,602 @@
         <v>59000000</v>
       </c>
       <c r="L23">
-        <v>56000000</v>
+        <v>59000000</v>
       </c>
       <c r="M23">
         <v>56000000</v>
       </c>
       <c r="N23">
+        <v>56000000</v>
+      </c>
+      <c r="O23">
         <v>55000000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>52000000</v>
-      </c>
-      <c r="P23">
-        <v>45000000</v>
       </c>
       <c r="Q23">
         <v>45000000</v>
       </c>
       <c r="R23">
+        <v>45000000</v>
+      </c>
+      <c r="S23">
         <v>44000000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>40000000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>34000000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>35000000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>35133000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>31288000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>26765000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>27000000</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>26933000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>21358000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>18417000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>17932000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>17464000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>17043000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>13849000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>13382000</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>12938000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>9071000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>8793000</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>9643000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>10893000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>10719000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>11141000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
-        <v>15004000000</v>
+        <v>15564000000</v>
       </c>
       <c r="C24">
-        <v>15812000000</v>
+        <v>14969000000</v>
       </c>
       <c r="D24">
-        <v>16314000000</v>
+        <v>15783000000</v>
       </c>
       <c r="E24">
-        <v>17151000000</v>
+        <v>17695000000</v>
       </c>
       <c r="F24">
+        <v>17130000000</v>
+      </c>
+      <c r="G24">
         <v>17232000000</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>17680000000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>10924000000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>10802000000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>10726000000</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>10617000000</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>10566000000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>10592000000</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>10706000000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>10465000000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>10229000000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>9899000000</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>9731000000</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>10269000000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>10105000000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>9743000000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>9627563000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>9582895000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>9365920000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>9237000000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>9315539000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>6536026000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>6385031000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>6208315000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>6196345000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>6109966000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>6075662000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>5941878000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>5897918000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>5854500000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>5789942000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>5703861000</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>5575287000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>5397223000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>5480846000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
-        <v>17171000000</v>
+        <v>17731000000</v>
       </c>
       <c r="C25">
-        <v>17979000000</v>
+        <v>17136000000</v>
       </c>
       <c r="D25">
-        <v>18481000000</v>
+        <v>17950000000</v>
       </c>
       <c r="E25">
-        <v>19318000000</v>
+        <v>19862000000</v>
       </c>
       <c r="F25">
+        <v>19297000000</v>
+      </c>
+      <c r="G25">
         <v>19499000000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>20531000000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>13600000000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>12993000000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>12917000000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>12314000000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>11769000000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>11795000000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>11909000000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>11668000000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>11432000000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>11102000000</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>10934000000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>11472000000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>11308000000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>10814000000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>10698850000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>10654180000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>10437150000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>10308000000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>10386760000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>7507304000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>7157670000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>6594606000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>6582637000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>6496258000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>6461954000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>6328170000</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>6284210000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>6240791000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>6176234000</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>6090153000</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>5961579000</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>5783515000</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>5867138000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
+        <v>182906000000</v>
+      </c>
+      <c r="C26">
         <v>179402000000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>178782000000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>176856000000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>174064000000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>173878000000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>175172000000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>125768000000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>123038000000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>120116000000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>118425000000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>113897000000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>109002000000</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>108735000000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>108247000000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>108203000000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>108781000000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>105652000000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>105358000000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>104246000000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>104185000000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>101988100000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>101406800000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>100045500000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>99714000000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>100765400000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>73954020000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>72644970000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>71018300000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>70210180000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>68845650000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>68002660000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>66298010000</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>64330630000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>63797110000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>61145750000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>59467180000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>56648250000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>56113690000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>56054960000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
+        <v>1443068000</v>
+      </c>
+      <c r="C27">
         <v>1442734000</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>1442194000</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>1439175000</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>1437742000</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>1446461000</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>1476557000</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>1018053000</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>1017197000</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>1017311000</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>1017310000</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>1014218000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>1020003000</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>1032755000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>1037841000</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>1046440000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>1046767000</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>1061529000</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>1104227000</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>1101796000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>1072027000</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>1080946000</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>1090016000</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>1087120000</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>1085689000</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>1084783000</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>799154000</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>796689000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>794929000</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>796659000</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>803065700</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>808528000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>811455000</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>814454000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>817002000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>827772000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>830963000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>830145000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>829675000</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>838758000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
-        <v>557500</v>
+        <v>560000</v>
       </c>
       <c r="C28">
         <v>557500</v>
@@ -3589,25 +3781,25 @@
         <v>557500</v>
       </c>
       <c r="F28">
+        <v>557500</v>
+      </c>
+      <c r="G28">
         <v>657500</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>1257000</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>1250000</v>
-      </c>
-      <c r="I28">
-        <v>750500</v>
       </c>
       <c r="J28">
         <v>750500</v>
       </c>
       <c r="K28">
+        <v>750500</v>
+      </c>
+      <c r="L28">
         <v>745500</v>
-      </c>
-      <c r="L28">
-        <v>740500</v>
       </c>
       <c r="M28">
         <v>740500</v>
@@ -3625,7 +3817,7 @@
         <v>740500</v>
       </c>
       <c r="R28">
-        <v>740000</v>
+        <v>740500</v>
       </c>
       <c r="S28">
         <v>740000</v>
@@ -3634,7 +3826,7 @@
         <v>740000</v>
       </c>
       <c r="U28">
-        <v>1098000</v>
+        <v>740000</v>
       </c>
       <c r="V28">
         <v>1098000</v>
@@ -3652,13 +3844,13 @@
         <v>1098000</v>
       </c>
       <c r="AA28">
+        <v>1098000</v>
+      </c>
+      <c r="AB28">
         <v>998000</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>798000</v>
-      </c>
-      <c r="AC28">
-        <v>398000</v>
       </c>
       <c r="AD28">
         <v>398000</v>
@@ -3670,10 +3862,10 @@
         <v>398000</v>
       </c>
       <c r="AG28">
+        <v>398000</v>
+      </c>
+      <c r="AH28">
         <v>796000</v>
-      </c>
-      <c r="AH28">
-        <v>398000</v>
       </c>
       <c r="AI28">
         <v>398000</v>
@@ -3693,370 +3885,382 @@
       <c r="AN28">
         <v>398000</v>
       </c>
+      <c r="AO28">
+        <v>398000</v>
+      </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
+        <v>11486000000</v>
+      </c>
+      <c r="C29">
         <v>10885000000</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>11705000000</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>12467000000</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>13358000000</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>13569000000</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>14596000000</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>11130000000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>10575000000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>10508000000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>9913000000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>9362000000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>9330000000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>9464000000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>9197000000</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>8929000000</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>8578000000</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>8384000000</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>8912000000</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>8736000000</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>8237000000</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>8116413000</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>8062821000</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>7828519000</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>7687000000</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>7772706000</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>6623303000</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>6260889000</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>5673525000</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>5846979000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>5755184000</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>5710923000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>5730956000</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>5676346000</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>5653885000</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>5580029000</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>5552695000</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>5413798000</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>5225374000</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>5298633000</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
+        <v>4776000000</v>
+      </c>
+      <c r="C30">
         <v>5970000000</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>6776000000</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>2464000000</v>
       </c>
-      <c r="E30">
-        <v>2961000000</v>
-      </c>
       <c r="F30">
+        <v>1923000000</v>
+      </c>
+      <c r="G30">
         <v>-2051000000</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>-6286000000</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>-1263000000</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>3670000000</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>2958000000</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>3479000000</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>10682000000</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>13539000000</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>7998000000</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>7050000000</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>7751000000</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>5795000000</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>7960000000</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>8218000000</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>7418000000</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>7553000000</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>7868391000</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>6849080000</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>7809487000</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>6733000000</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>7249448000</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>6982455000</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>7006572000</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>6105373000</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>5230673000</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>4344060000</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>4137304000</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>3008647000</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>4205368000</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>5130724000</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>2071718000</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>1364524000</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>1104693000</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>1101366000</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>541941000</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B31">
+        <v>11713000000</v>
+      </c>
+      <c r="C31">
         <v>10594000000</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>10914000000</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>7160000000</v>
       </c>
-      <c r="E31">
-        <v>8921000000</v>
-      </c>
       <c r="F31">
+        <v>7883000000</v>
+      </c>
+      <c r="G31">
         <v>8214000000</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>7733000000</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>7429000000</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>10444000000</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>9396000000</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>9899000000</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>12622000000</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>14910000000</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>9874000000</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>8973000000</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>9400000000</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>8625000000</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>9385000000</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>9726000000</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>8618000000</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>9206000000</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>9200707000</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>8536471000</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>9279140000</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>8309000000</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>8998571000</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>7929820000</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>7935412000</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>7041364000</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>6359445000</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>5854584000</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>5158836000</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>4335962000</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>5224588000</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>6469352000</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>3156652000</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>2458272000</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>2349618000</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>2252914000</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>1528466000</v>
       </c>
     </row>
